--- a/dados/Estatais_rev.xlsx
+++ b/dados/Estatais_rev.xlsx
@@ -5,33 +5,36 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\COREM\3. PAF\3. Avaliação\2018\Arquivos de Trabalho\Z GEPAT\Estatais\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago.pereira\Documents\GitHub\estatais-estados\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A32E03-FEC9-4196-810C-A18157DA7E56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A2E75-484B-4E93-84FA-6BC5832562CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{6676EBA9-1B60-4743-AD0B-38828D275A1F}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{6676EBA9-1B60-4743-AD0B-38828D275A1F}"/>
   </bookViews>
   <sheets>
     <sheet name="PL" sheetId="3" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="11" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="7" r:id="rId3"/>
-    <sheet name="Planilha1 (2)" sheetId="9" r:id="rId4"/>
-    <sheet name="Planilha5" sheetId="10" r:id="rId5"/>
-    <sheet name="Planilha2" sheetId="6" r:id="rId6"/>
-    <sheet name="Governança" sheetId="4" r:id="rId7"/>
-    <sheet name="Setor Privado" sheetId="5" r:id="rId8"/>
+    <sheet name="tab grafs" sheetId="12" r:id="rId2"/>
+    <sheet name="grafs" sheetId="13" r:id="rId3"/>
+    <sheet name="Planilha3" sheetId="11" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId5"/>
+    <sheet name="Planilha1 (2)" sheetId="9" r:id="rId6"/>
+    <sheet name="Planilha5" sheetId="10" r:id="rId7"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId8"/>
+    <sheet name="Governança" sheetId="4" r:id="rId9"/>
+    <sheet name="Setor Privado" sheetId="5" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PL!$A$1:$L$259</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Planilha5!$A$1:$B$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PL!$A$1:$M$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Planilha5!$A$1:$B$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
+    <pivotCache cacheId="11" r:id="rId12"/>
+    <pivotCache cacheId="17" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="414">
   <si>
     <t>Estado</t>
   </si>
@@ -1470,6 +1473,9 @@
   <si>
     <t xml:space="preserve"> R$   832.379.000,00 </t>
   </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
 </sst>
 </file>
 
@@ -1548,7 +1554,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1570,6 +1576,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1632,7 +1644,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1696,6 +1708,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
@@ -1705,7 +1718,61 @@
     <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="5" builtinId="3"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1729,6 +1796,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF440154"/>
+      <color rgb="FFFDE725"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1753,8 +1826,1842 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quantidade de empresas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por segmento</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafs!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dependente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="440154"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>grafs!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>OUTRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DESENVOLVIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SANEAMENTO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FINANCEIRO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ABASTECIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TRANSPORTES</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DISTRIBUIÇÃO DE GÁS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ENERGIA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>INFORMÁTICA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SERVIÇOS PÚBLICOS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASSIS, TÉCNICA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>URBANIZAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>GESTÃO DE ATIVOS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PESQUISA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>COMUNICAÇÕES</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HABITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SAÚDE</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MINERAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>PORTOS E HIDROVIAS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>TELECOMUNICAÇÕES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafs!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D22A-44BD-B4B2-9CCEDDA95899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafs!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não Dependente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FDE725"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>grafs!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>OUTRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DESENVOLVIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SANEAMENTO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FINANCEIRO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ABASTECIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TRANSPORTES</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DISTRIBUIÇÃO DE GÁS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ENERGIA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>INFORMÁTICA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SERVIÇOS PÚBLICOS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASSIS, TÉCNICA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>URBANIZAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>GESTÃO DE ATIVOS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PESQUISA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>COMUNICAÇÕES</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HABITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SAÚDE</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MINERAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>PORTOS E HIDROVIAS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>TELECOMUNICAÇÕES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafs!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D22A-44BD-B4B2-9CCEDDA95899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafs!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não Informado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>grafs!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>OUTRO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DESENVOLVIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SANEAMENTO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FINANCEIRO</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ABASTECIMENTO</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TRANSPORTES</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>DISTRIBUIÇÃO DE GÁS</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ENERGIA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>INFORMÁTICA</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SERVIÇOS PÚBLICOS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASSIS, TÉCNICA</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>URBANIZAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>GESTÃO DE ATIVOS</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PESQUISA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>COMUNICAÇÕES</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HABITAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SAÚDE</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MINERAÇÃO</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>PORTOS E HIDROVIAS</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>TELECOMUNICAÇÕES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafs!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D22A-44BD-B4B2-9CCEDDA95899}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="100"/>
+        <c:axId val="1335409391"/>
+        <c:axId val="1344209695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1335409391"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1344209695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1344209695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1335409391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="+mj-lt"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Quantidade de empresas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> por estado</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafs!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dependente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="440154"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>grafs!$A$30:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RJ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PI</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RN</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MT</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AM</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>RO</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>TO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafs!$B$30:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AB3-4209-BF56-8EE5481C868D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafs!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não Dependente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FDE725"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>grafs!$A$30:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RJ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PI</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RN</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MT</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AM</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>RO</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>TO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafs!$C$30:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AB3-4209-BF56-8EE5481C868D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafs!$D$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Não Informado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="95000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mj-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>grafs!$A$30:$A$56</c:f>
+              <c:strCache>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>SP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>GO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>DF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RJ</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>PA</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PI</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>PB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>RN</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>MT</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AM</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>AC</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>MA</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>MS</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>RO</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>TO</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RR</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>AP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafs!$D$30:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9AB3-4209-BF56-8EE5481C868D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:overlap val="100"/>
+        <c:axId val="1335409391"/>
+        <c:axId val="1344209695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1335409391"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1344209695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1344209695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1335409391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="+mj-lt"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Base de Dados - Estatais.xlsx]Planilha1!Tabela dinâmica1</c:name>
+    <c:name>[Estatais_rev.xlsx]Planilha1!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -15940,7 +17847,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -15954,7 +17861,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Base de Dados - Estatais.xlsx]Planilha1 (2)!Tabela dinâmica1</c:name>
+    <c:name>[Estatais_rev.xlsx]Planilha1 (2)!Tabela dinâmica1</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -30331,7 +32238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -30674,7 +32581,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -30688,7 +32595,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Base de Dados - Estatais.xlsx]Planilha2!Tabela dinâmica1</c:name>
+    <c:name>[Estatais_rev.xlsx]Planilha2!Tabela dinâmica1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -31329,7 +33236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -31916,6 +33823,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -31953,6 +33940,1016 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32455,7 +35452,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -32958,7 +35955,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -33463,7 +36460,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -33968,7 +36965,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -34491,6 +37488,85 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06015D38-61AE-42A1-81C9-FB990DC15B76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF1B0FE-06DF-45ED-A8D5-03BD0344664B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -34528,7 +37604,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34571,7 +37647,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34612,7 +37688,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -35227,6 +38303,61 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tiago Maranhao Barreto Pereira" refreshedDate="43670.542592361111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="258" xr:uid="{2098D61C-8049-494F-BED7-B4B10BDC2885}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E259" sheet="PL"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Estado" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Empresa" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Sigla" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Dependência" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Dependente"/>
+        <s v="Não Dependente"/>
+        <s v="Não Informado"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Segmento" numFmtId="0">
+      <sharedItems count="20">
+        <s v="INFORMÁTICA"/>
+        <s v="FINANCEIRO"/>
+        <s v="SERVIÇOS PÚBLICOS"/>
+        <s v="ABASTECIMENTO"/>
+        <s v="SANEAMENTO"/>
+        <s v="DESENVOLVIMENTO"/>
+        <s v="ASSIS, TÉCNICA"/>
+        <s v="DISTRIBUIÇÃO DE GÁS"/>
+        <s v="OUTRO"/>
+        <s v="GESTÃO DE ATIVOS"/>
+        <s v="COMUNICAÇÕES"/>
+        <s v="ENERGIA"/>
+        <s v="URBANIZAÇÃO"/>
+        <s v="HABITAÇÃO"/>
+        <s v="TRANSPORTES"/>
+        <s v="SAÚDE"/>
+        <s v="PESQUISA"/>
+        <s v="MINERAÇÃO"/>
+        <s v="TELECOMUNICAÇÕES"/>
+        <s v="PORTOS E HIDROVIAS"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="250">
   <r>
@@ -38482,8 +41613,1979 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="258">
+  <r>
+    <s v="AC"/>
+    <s v="EMP. DE PROC. DE DADOS DO ACRE S/A - ACREDATA"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="AC"/>
+    <s v="BANACRE S/A EM LIQUIDAÇÃO ORDINARIA"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AC"/>
+    <s v="CAGEACRE"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AC"/>
+    <s v="COMPANHIA INDUSTRIAL DE LATICINIOS "/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AC"/>
+    <s v="COMPANHIA DE DESENVOL IND DO EST DO ACRE-CODISACRE "/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AC"/>
+    <s v="COMPANHIA DE DESENVOLVIMENTO AGRARIO E COLONIZAÇÃO DO ACRE - COLONACRE"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="AC"/>
+    <s v="CIA DE SANEAMENTO DO ESTADO DO ACRE-SANACRE"/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="Agência de Fomento de Alagoas S/A - DESENVOLVE - dados 2017"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="Companhia Alagoana de Recursos Humanos e Patrimoniais - CARHP"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="Serviços de Engenharia do Estado de Alagoas - SERVEAL"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="Banco do Estado de Alagoas - PRODUBAN - parece que foi vendido"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="COMPANHIA DE SANEAMENTO DE ALAGOAS - CASAL"/>
+    <s v="CASAL"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="GAS DE ALAGOAS S/A - ALGAS"/>
+    <s v="ALGÁS"/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="Laboratório Industrial Farmacêutico de Alagoas S.A. – LIFAL"/>
+    <s v="LIFAL"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="ALAGOAS ATIVOS S.A."/>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="AL"/>
+    <s v="Companhia de Edição, Impressão e Publicação de Alagoas - CEPAL"/>
+    <s v="CEPAL"/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="AM"/>
+    <s v="Companhia de Saneamento do Amazonas - Cosama"/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="AM"/>
+    <s v="Agência de Desenvolvimento Sustentável do Amazonas - ADS"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="AM"/>
+    <s v="Empresa Estadual de Turismo"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="AM"/>
+    <s v="Companhia de Gás do Amazonas - Cigás"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="AM"/>
+    <s v="CIAMA"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="AM"/>
+    <s v="PRODAM - PROC. DE DADOS AMAZONAS S.A."/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="AM"/>
+    <s v="AGÊNCIA DE FOMENTO DO ESTADO DO AMAZONAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AP"/>
+    <s v="Companhia de Água e Esgoto do Amapá "/>
+    <s v="CAESA "/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="AP"/>
+    <s v="Companhia de Eletricidade do Amapá "/>
+    <s v="(CEA) "/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="EMPRESA BAIANA DAS ÁGUAS E SANEAMENTO"/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="COMPANHIA BAIANA DE PESQUISA MINERAL CBPM"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="BAHIA PESCA S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="CAR"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="CONDER"/>
+    <m/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="CERB"/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="COMPANHIA  DE GAS DA BAHIA - BAHIAGAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="BAHIAINVESTE - EMPRESA BAIANA DE ATIVOS S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="DESENBAHIA"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="PRODEB"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="EGBA"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="BA"/>
+    <s v="URBIS"/>
+    <m/>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Empresa de Assistência Técnica e Extensão Rural do Ceará - EMATERCE"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Empresa de Tecnologia da Informação do Ceará - ETICE"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia de Habitação do Ceará - COHAB"/>
+    <m/>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia de Desenvolvimento do Ceará - CODECE"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia de Água e Esgoto do Ceará - CAGECE"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia de Gás do Ceará - CEGÁS"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia Cearense de Transportes Metropolitanos - METROFOR"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia do Complexo Industrial e Portuária do Pecém - CIPP S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Centrais de Abastecimento do Ceará S/A - CEASA"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia de Gestão dos Recursos Hídricos do Ceará - COGERH"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Agência de Desenvolvimento do Estado do Ceará - ADECE"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="CE"/>
+    <s v="Companhia Adm. da Zona de Process. de Exportação do Ceará - ZPE CEARÁ"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v=" COMPANHIA DE DESENVOLVIMENTO DO  DF - CODEPLAN "/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v=" COMPANHIA URBANIZADORA DA NOVA CAPITAL - NOVACAP"/>
+    <m/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="TRASNPORTES COLETIVOS DE BRASILIA - TCB"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v=" COMPANHIA METROPOLITANA DO  DF - METRÔ DF"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v=" EMPRESA DE ASSISTENCIA TÉCNICA E EXTENSÃO RURAL DO DF - EMATER"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="COMPANHIA DE DESENVOLVIMENTO HABITACIONAL DO DF - CODHAB"/>
+    <m/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="SOCIEDADE DE ABASTECIMENTO DE BRASILIA - SAB "/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="BANCO DE BRASILIA - BRB "/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="COMPANHIA DE SANEAMENTO AMBIENTAL DO DF - CAESB"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="COMPANHIA ENERGETICA DE BRASILIA - CEB "/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="CENTRAIS DE ABASTECIMENTO DO DISTRITO FEDERAL  - CEASA "/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="COMPANHIA IMOBILIARIA DE BRASILIA  - TERRACAP"/>
+    <m/>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="DF"/>
+    <s v="DF GESTÃO DE ATIVOS  S . A. "/>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="ES"/>
+    <s v="Ceasa - Centrais de Abastecimento do Espirito Santo S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="ES"/>
+    <s v="Cohab - Companhia de Habitação e Urbanização do Estado do Espirito Santo - Em Liquidação"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="ES"/>
+    <s v="Banestes - Banco do Estado do Espirito Santo"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ES"/>
+    <s v="Bandes - Banco de Desenvolvimento do Espírito Santo S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="ES"/>
+    <s v="Cesan - Companhia Espirito Santense de Saneamento"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="ES"/>
+    <s v="Ceturb - Companhia Estadual de Transportes Coletivos de Passageiros do Espirito Santo"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="CASEGO - COMPANHIA DE ARMAZÉM E SILOS DO ESTADO DE GOIÁS S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="EMATER - AGENCIA GOIANA DE ASSISTENCIA TECNICA, EXTENSAO RURAL E PESQUISA AGROPECUARIA"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="GOIASTELECOM - GOIAS TELECOMUNICACOES S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="METAGO - METAIS DE GOIAS S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="PRODAGO - EMPRESA ESTADUAL DE PROCESSAMENTO DE DADOS DE GOIAS"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="AGEHAB - AGENCIA GOIANA DE HABITAÇÃO S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="CAIXEGO - CAIXA ECONÔMICA DO ESTADO DE GOIÁS S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="CEASA - CENTRAIS DE ABASTECIMENTO DE GOIÁS"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="CELGPAR - CIA CELG DE PARTICIPACOES"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="CODEGO - COMPANHIA DE DESENVOLVIMENTO ECONÔMICO DE GOIÁS"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="GOIASFOMENTO - AGENCIA DE FOMENTO DE GOIAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="GOIASGAS - AGENCIA GOIANA DE GAS CANALIZADO S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="GOIASPARCERIAS - COMPANHIA DE INVESTIMENTO E PARCERIAS DO ESTADO DE GOIAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="IQUEGO - INDÚSTRIA QUÍMICA DO ESTADO DE GOIÁS S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="METROBUS - METROBUS TRANSPORTE COLETIVO S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="GO"/>
+    <s v="SANEAGO - SANEAMENTO DE GOIAS S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MA"/>
+    <s v="EMPRESA MARANHENSE DE ADMINISTRACAO D RECURSOS HUMANOS E NEGOCIOS PUBLICOS S.A"/>
+    <m/>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="MA"/>
+    <s v="EMPRESA MARANHENSE DE SERVIÇOS HOSPITALARES - EMSERH"/>
+    <m/>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <s v="MA"/>
+    <s v="COMPANHIA DE SANEAMENTO AMBIENTAL DO MARANHÃO - CAEMA"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MA"/>
+    <s v="EMAP"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="MA"/>
+    <s v="COMPANHIA MARANHENSE DE GAS - GASMAR"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Empresa de Assistência Técnica e Extensão Rural do Estado de Minas Gerais - EMATER"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Empresa de Pesquisa Agropecuária de Minas Gerais - EPAMIG"/>
+    <m/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Empresa Mineira de Comunicação - EMC (Rádio Inconfidência)"/>
+    <m/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Banco de Desenvolvimento de Minas Gerais S.A. - BDMG"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Companhia de Desenvolvimento de Minas Gerais – CODEMGE"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Codemge Participações S.A. - CODEPAR"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Companhia de Desenvolvimento Econômico de Minas Gerais – CODEMIG"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Companhia de Habitação do Estado de Minas Gerais – COHAB MINAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Companhia de Saneamento de Minas Gerais - COPASA"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Copasa Serviços de Saneamento Integrado do Norte e Nordeste de Minas Gerais S/A - COPANOR"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Companhia de Tecnologia da Informação do Estado de Minas Gerais - PRODEMGE"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Companhia Energética de Minas Gerais – CEMIG"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Cemig Distribuição S.A. - CEMIG D"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Cemig Geração e Transmissão S.A. - CEMIG GT"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Companhia de Gás de Minas Gerais - GASMIG "/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Minas Gerais Participações S.A. – MGI"/>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="EMIP - Empresa Mineira de Parcerias S.A. "/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Minas Gerais Administração e Serviços S.A. - MGS"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="MG"/>
+    <s v="Trem Metropolitano de Belo Horizonte S/A - METROMINAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="MS"/>
+    <s v="EMPRESA DE SERVIÇOS AGROPECUÁRIOS DE MS (EM LIQUIDAÇÃO)"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="MS"/>
+    <s v="EMPRESA DE GESTÃO DE RECURSOS MINERAIS DE MS - MS MINERAL"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="MS"/>
+    <s v="EMPRESA DE SANEAMENTO DE MS S.A.-SANESUL"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MS"/>
+    <s v="COMPANHIA DE GAS DO ESTADO DE MATO GROSSO DO SUL - MSGAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="MS"/>
+    <s v="CENTRAIS DE ABASTECIMENTO DE MATO GROSSO DO SUL S/A CEASA/ MS"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="MT"/>
+    <s v="METAMAT"/>
+    <m/>
+    <x v="0"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <s v="MT"/>
+    <s v="EMPAER-MT"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="MT"/>
+    <s v="COMPANHIA MATOGROSSENSE DE GAS - MTGAS"/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="MT"/>
+    <s v="MT PARCERIAS S.A."/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="MT"/>
+    <s v="EMPRESA MATOGROSSENSE DE TECNOLOGIA  DA INFORMAÇÃO - MTI"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="MT"/>
+    <s v="COMPANHIA DE SANEAMENTO DO ESTADO"/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="MT"/>
+    <s v="Agência de Fomento do Estado de Mato Grosso S/A - DESENVOLVE MT"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="COMP. ADM DA ZONA DE PROC DE EXP BARCARENA"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="Banco do Estado do Pará"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="COMPANHIA DE PORTOS E HID. DO ESTADO DO PARA"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="CENTRAIS DE ABASTECIMENTO DO PARA AS"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="COMP.DE DESENV. ECONOMICO DO PARÁ"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="COMPANHIA DE HAB. DO ESTADO DO PARÁ"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="COMPANHIA DE SANEAMENTO DO PARÁ"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="EMP DE ASSIST TEC E EXTENSAO RURAL DO ESTADO DO PARÁ"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="COMPANHIA DE GAS DO PARA "/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="PA"/>
+    <s v="Empresa de Tec. da Inf. e Comunicação do Estado do Pará - PRODEPA"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Empresa Paraibana de Turismo S/A (PBTUR S/A)"/>
+    <s v="PBTUR"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Cia. de Desenvolvimento da Paraíba (CINEP)"/>
+    <s v="CINEP"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Laboratório Industria Farmacêutica da Paraíba S/A (LIFESA)"/>
+    <s v="LEFESA"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Empresa de Assist.Técnica e Extensão Rural (EMATER)"/>
+    <s v="EMATER"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Empresa Paraibana de Abast.e Serv. Agrícolas (EMPASA) - em liquidação"/>
+    <s v="EMPASA"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Cia. de Process.de Dados - CODATA"/>
+    <s v="CODATA"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Companhia Paraíbana de Gás"/>
+    <s v="PBGAS"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Companhia DOCAS da Paraíba"/>
+    <s v="DOCAS"/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PB"/>
+    <s v="Cia .de Água e Esgotos da Paraíba - CAGEPA"/>
+    <s v="CAGEPA"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="COMPANHIA ESTADUAL DE HABITAÇÃO E OBRAS - CEHAB"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="CONSORCIO DE TRANSPORTES DA REGIAO METROPOLITANA DO RECIFE"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="EMPRESA PERNAMBUCO DE COMUNICAÇÃO S/A - EPC"/>
+    <m/>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="INSTITUTO AGRONÔMICO DE PERNAMBUCO - IPA"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="EMPRESA DE TURISMO DE PERNAMBUCO GOVERNADOR EDUARDO CAMPOS - EMPETUR"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="EMPRESA PERNAMBUCANA DE TRANSPOSTE COLETIVO INTERMUNICIPAL"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="PERNAMBUCO PARTICIPAÇÕES E INVESTIMENTOS S.A. - PERPART"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="AGENCIA DE FOMENTO DO ESTADO DE PERNAMBUCO"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="COMPANHIA EDITORA DE PERNAMBUCO"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="COMPANHIA PERNAMBUCANA DE SANEAMENTO"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="LABORATORIO FARMACEUTICO DO ESTADO DE PERNAMBUCO GOVERNADOR MIGUEL ARRAES S/A - LAFEPE"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="SUAPE COMPLEXO INDUSTRIAL PORTUÁRIO GOVERNADOR ERALDO GUEIROS"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="AGENCIA DE DESENVOLVIMENTO ECONOMICO DE PERNAMBUCO AS - AD DIPER"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="COMPANHIA PERNAMBUCANA DE GÁS - COPERGÁS"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="PE"/>
+    <s v="PORTO DO RECIFE S.A."/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Cia. de Gás do Piauí - GASPISA"/>
+    <s v="GASPISA"/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Cia. Energética do Estado do Piauí S/A - CEPISA (não consta na LOA - Privatizou?)"/>
+    <s v="CEPISA"/>
+    <x v="2"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Águas e Esgotos do Piauí S/A - AGESPISA"/>
+    <s v="AGEPISA"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Agência de Fomento e Desenvolvimento do Piauí"/>
+    <s v="FOMENTO"/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Cia de Adm. da ZPE de Parnaíba"/>
+    <s v="ZPE"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Cia. De Terminais Alfandegados"/>
+    <s v="PORTO-PI"/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Cia Metropolitana de Transportes Públicos"/>
+    <s v="CMTP"/>
+    <x v="2"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Empresa de Telecomunicações do Piauí - ETELPI"/>
+    <s v="ETELPI"/>
+    <x v="2"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <s v="PI"/>
+    <s v="Empresa de Gestão de Rec. Hum. do Estado Piauí-EMGERPI"/>
+    <s v="EMGERPI"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Companhia de Desenvolvimento Agropecuário do Paraná (CODAPAR)"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Companhia de Saneamento do Paraná - SANEPAR"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Administração dos Portos de Paranaguá e Antonia - APPA"/>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Companhia de Tecnologia da Informação e Comunicação do Paraná – CELEPAR"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Estrada de Ferro Paraná Oeste S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Companhia Paranaense de Energia - Copel (Consolidado)"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Centrais de Abastecimento do Paraná S/A - CEASA"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Instituto de Tecnologia do Paraná – TECPAR"/>
+    <m/>
+    <x v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Companhia de Habitação do Paraná - COHAPAR"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="PR"/>
+    <s v="Agência de Fomento do Paraná"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="COMPANHIA DE TRANSPORTES SOBRE  TRILHOS DO ESTADO DO RIO DE JANEIRO - RIOTRILHOS"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="EMPRESA DE OBRAS PÚBLICAS DO ESTADO DO RIO DE JANEIRO"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="EMPRESA DE PESQUISA AGROPECUARIA ESTADO RIO DE JANEIRO "/>
+    <m/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="EMPRESA DE ASSISTENCIA TECNICA E EXTENSAO RURAL DO ESTADO DO RIO DE JANEIRO - EMATER-RIO"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="Cia de Desenvolvimento Industrial do ERJ - CODIN"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="Companhia Estadual de Habitação do Rio de janeiro CEHAB RJ"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="COMPANHIA DE DESENVOLVIMENTO ROD E TERMINAIS DO EST RJ - CODERTE"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="COMPANHIA DE ARMAZÉNS E SILOS DO ESTADO DO RIO DE JANEIRO"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="CENTRAIS DE ABAST DO ESTADO DO RJ S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="CIA.  DE TURISMO DO ESTADO DO RJ"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="RJ"/>
+    <s v="Companhia Estadual de Águas e Esgotos (CEDAE)"/>
+    <m/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="CEHAB"/>
+    <m/>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="EMPARN"/>
+    <m/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="CEASA"/>
+    <m/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="EMPROTUR"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="DATANORTE"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="CAERN"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="EMGERN"/>
+    <m/>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="POTIGAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="RN"/>
+    <s v="AGN"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RO"/>
+    <s v="COMPANHIA RONDONIENSE DE GÁS - RONGÁS"/>
+    <m/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="RO"/>
+    <s v="Companhia de Águas e Esgotos de Rondônia - CAERD"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="RO"/>
+    <s v="SOCIEDADE DE PORTOS E HIDROVIAS DE RONDÔNIA - SOPH/RO"/>
+    <m/>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <s v="RO"/>
+    <s v="Companhia de Mineração de Rondônia - CMR"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="RR"/>
+    <s v="Companhia de Desenvolvimento de Roraima"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="RR"/>
+    <s v="Companhia de Águas e Esgotos de Roraima"/>
+    <m/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="RR"/>
+    <s v="Agência de Desenvolvimento do Estado de Roraima"/>
+    <m/>
+    <x v="2"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Companhia de Processamento de Dados do Estado do RS - PROCERGS"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Companhia de Gás do Estado RGS - SULGÁS"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Caixa de Administração da Dívida Pública Estadual - CADIP"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Companhia Riograndense de Mineração - CRM"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Centrais de Abastecimento do Rio Grande do Sul - CEASA"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Companhia Riograndense de Saneamento - CORSAN"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Companhia Estadual de Geração e Transmição de Energia Eletrica - CEEE-GT"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Companhia Estadual de Distribuição de Enegia Eletrica - CEEE-D"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Empresa Gaúcha de Rodovias - EGR"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="Banco do Estado do Rio Grande do Sul - BANRISUL"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="RS"/>
+    <s v="BADESUL Desenvolvimento S.A. - Agência de Fomento/RS"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Companhia de Habitação do Estado de Santa Catarina - COHAB - Em liquidação"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Companhia Integrada de Desnvolvimento Agrícola de Santa Catarina - CIDASC"/>
+    <m/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Santa Catarina Turismo S.A - SANTUR"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Empresa de Pesquisa Agropecuária e Extensão Rual de Santa Catarina - EPAGRI"/>
+    <m/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Cia de Desenvolvimento do Estado de Santa Catarina - CODESC - em Liquidação"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Agência de Fomento do Estado de Santa Catarina S/A - BADESC"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Centrais Elétricas de Santa Catarina - CELESC"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Santa Catarina Participação e Investimentos S/A - INVESC"/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Centrais de Abastecimento do Estado de Santa Catarina S/A - CEASA"/>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Centro de Informatica e Automação de SC S/A - CIASC"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Companhia Catarinense de Aguas e Saneamento - CASAN"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="Cia de Distritos Industriais de Santa Catarina - CODISC - em Liquidação"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SC"/>
+    <s v="SC Participações e Parceria S.A (SCPar)"/>
+    <m/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="EMPRESA DE DESENVOLVIMENTO AGROPECOARIO DE SERGIPE -  EMDAGRO"/>
+    <m/>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="COMPANHIA ESTADUAL DE HABITAÇÃO E OBRAS PUBLICAS - CEHOP"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="EMPRESA SERGIPANA DE TECNOLOGIA DA INFORMÇÃO - EMGETIS"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="COMPANHIA DE DESENVOLVIMENTO ECONÔMICO DE SERGIPE - CODISE"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="EMPRESA SERGIPANA DE TURISMO S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="COMPANHIA  DESENV.DE RECUR. HIDRI. IRRIGAÇÃO DE  SERGIPE - COHIDRO"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="EMPRESA DE DESEN. SUST. DO EST. DE SERGIPE - PRONESE"/>
+    <m/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="SERGIPE GAS S/A - SERGAS"/>
+    <m/>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="COMPANHIA DE SANEAMENTO DE SERGIPE – DESO"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="SERVICOS GRAFICOS DE SERGIPE -SEGRASE"/>
+    <m/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="SE"/>
+    <s v="BANCO DO ESTADO DE SERGIPE S.A."/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="CETESB - COMPANHIA AMBIENTAL DO ESTADO DE SÃO PAULO"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="COMPANHIA DOCAS DE SÃO SEBASTIÃO"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="CODASP - COMPANHIA DE DESENVOLVIMENTO AGRÍCOLA DE SÃO PAULO"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="EMPLASA - EMPRESA PAULISTA DE PLANEJAMENTO METROPOLITANO S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="IPT - INSTITUTO DE PESQUISAS TECNOLÓGICAS DO ESTADO DE SÃO PAULO S/A"/>
+    <m/>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="CPTM - COMPANHIA PAULISTA DE TRASNPORTE METROPOLITANO"/>
+    <m/>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="SABESP - COMPANHIA DE SANEAMENTO BÁSICO DE SÃO PAULO"/>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="PRODESP - CIA DE PROCESSAMENTO DE DADOS DO ESTADO DE SÃO PAULO"/>
+    <m/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="COSESP - COMPANHIA DE SEGUROS DO ESTADO DE SÃO PAULO "/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="METRÔ - COMPANHIA DO METROPOLITANO DE SÃO PAULO "/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="DESENVOLVE SP - AGÊNCIA DE FOMENTO DO ESTADO DE SÃO PAULO S.A."/>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="EMTU - EMPRESA METROPOLITANA DE TRANSPORTES URBANOS S.A"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="EMTU - EMPRESA METROPOLITANA DE TRANSPORTES URBANOS S.A"/>
+    <m/>
+    <x v="1"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="EMAE - EMPRESA METROPOLITANA DE ÁGUAS E ENERGIA"/>
+    <m/>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="CDHU - COMPANHIA DE DESENVOLVIMENTO HABITACIONAL E URBANO"/>
+    <m/>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="CPOS - COMPANHIA PAULISTA DE OBRAS E SERVIÇOS "/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="CPSEC - COMPANHIA PAULISTA DE SECURITIZAÇÃO"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="CPP - COMPANHIA PAULISTA DE PARCERIAS  **"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="IMESP - IMPRENSA OFICIAL DO ESTADO S.A"/>
+    <m/>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="SP"/>
+    <s v="DERSA - DESENVOLVIMENTO RODOVIÁRIO S/A"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="TO"/>
+    <s v="AGÊNCIA DE FOMENTO DO TOCANTINS"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="TO"/>
+    <s v="COMPANHIA IMOB. DO ESTADO DO TOCANTINS - TERRATINS"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="TO"/>
+    <s v="COMPANHIA DE MINERAÇÃO DO TOCANTINS - MINERATINS"/>
+    <m/>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61B1AD8F-02E7-40CB-A1FE-5E24D85FA955}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF3CD36F-AD9C-474D-82A4-4FEB4C47B334}" name="Tabela dinâmica2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0" sortType="descending">
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="21">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Empresa" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{61B1AD8F-02E7-40CB-A1FE-5E24D85FA955}" name="Tabela dinâmica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:A76" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -39053,419 +44155,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{108DFA18-215C-48DD-A8FA-0184EDE7DC13}" name="Tabela dinâmica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B28:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0">
-      <items count="29">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item h="1" x="27"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="249">
-        <item x="49"/>
-        <item x="52"/>
-        <item x="50"/>
-        <item x="53"/>
-        <item x="156"/>
-        <item x="73"/>
-        <item x="189"/>
-        <item x="47"/>
-        <item x="144"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="112"/>
-        <item x="139"/>
-        <item x="206"/>
-        <item x="22"/>
-        <item x="163"/>
-        <item x="244"/>
-        <item x="150"/>
-        <item x="182"/>
-        <item x="149"/>
-        <item x="14"/>
-        <item x="200"/>
-        <item x="27"/>
-        <item x="32"/>
-        <item x="1"/>
-        <item x="56"/>
-        <item x="89"/>
-        <item x="10"/>
-        <item x="224"/>
-        <item x="114"/>
-        <item x="199"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="179"/>
-        <item x="2"/>
-        <item x="192"/>
-        <item x="74"/>
-        <item x="28"/>
-        <item x="68"/>
-        <item x="238"/>
-        <item x="176"/>
-        <item x="75"/>
-        <item x="62"/>
-        <item x="174"/>
-        <item x="76"/>
-        <item x="172"/>
-        <item x="105"/>
-        <item x="45"/>
-        <item x="59"/>
-        <item x="209"/>
-        <item x="116"/>
-        <item x="160"/>
-        <item x="194"/>
-        <item x="207"/>
-        <item x="210"/>
-        <item x="30"/>
-        <item x="66"/>
-        <item x="225"/>
-        <item x="67"/>
-        <item x="131"/>
-        <item x="151"/>
-        <item x="205"/>
-        <item x="168"/>
-        <item x="212"/>
-        <item x="6"/>
-        <item x="153"/>
-        <item x="173"/>
-        <item x="124"/>
-        <item x="147"/>
-        <item x="128"/>
-        <item x="152"/>
-        <item x="148"/>
-        <item x="20"/>
-        <item x="227"/>
-        <item x="77"/>
-        <item x="63"/>
-        <item x="113"/>
-        <item x="117"/>
-        <item x="31"/>
-        <item x="219"/>
-        <item x="48"/>
-        <item x="8"/>
-        <item x="26"/>
-        <item x="211"/>
-        <item x="43"/>
-        <item x="23"/>
-        <item x="41"/>
-        <item x="184"/>
-        <item x="188"/>
-        <item x="171"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="154"/>
-        <item x="187"/>
-        <item x="40"/>
-        <item x="90"/>
-        <item x="217"/>
-        <item x="54"/>
-        <item x="170"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="91"/>
-        <item x="19"/>
-        <item x="42"/>
-        <item x="104"/>
-        <item x="191"/>
-        <item x="121"/>
-        <item x="46"/>
-        <item x="118"/>
-        <item x="39"/>
-        <item x="92"/>
-        <item x="201"/>
-        <item x="162"/>
-        <item x="186"/>
-        <item x="246"/>
-        <item x="115"/>
-        <item x="190"/>
-        <item x="57"/>
-        <item x="86"/>
-        <item x="11"/>
-        <item x="93"/>
-        <item x="222"/>
-        <item x="16"/>
-        <item x="111"/>
-        <item x="119"/>
-        <item x="155"/>
-        <item x="94"/>
-        <item x="157"/>
-        <item x="164"/>
-        <item x="44"/>
-        <item x="130"/>
-        <item x="226"/>
-        <item x="140"/>
-        <item x="58"/>
-        <item x="95"/>
-        <item x="197"/>
-        <item x="196"/>
-        <item x="169"/>
-        <item x="132"/>
-        <item x="215"/>
-        <item x="245"/>
-        <item x="60"/>
-        <item x="3"/>
-        <item x="202"/>
-        <item x="88"/>
-        <item x="108"/>
-        <item x="129"/>
-        <item x="159"/>
-        <item x="145"/>
-        <item x="141"/>
-        <item x="193"/>
-        <item x="195"/>
-        <item x="183"/>
-        <item x="29"/>
-        <item x="133"/>
-        <item x="96"/>
-        <item x="233"/>
-        <item x="239"/>
-        <item x="241"/>
-        <item x="240"/>
-        <item x="230"/>
-        <item x="178"/>
-        <item x="243"/>
-        <item x="33"/>
-        <item x="235"/>
-        <item x="61"/>
-        <item x="35"/>
-        <item x="237"/>
-        <item x="87"/>
-        <item x="69"/>
-        <item x="180"/>
-        <item x="120"/>
-        <item x="0"/>
-        <item x="107"/>
-        <item x="175"/>
-        <item x="228"/>
-        <item x="25"/>
-        <item x="126"/>
-        <item x="37"/>
-        <item x="167"/>
-        <item x="220"/>
-        <item x="214"/>
-        <item x="102"/>
-        <item x="165"/>
-        <item x="204"/>
-        <item x="166"/>
-        <item x="103"/>
-        <item x="101"/>
-        <item x="122"/>
-        <item x="38"/>
-        <item x="136"/>
-        <item x="18"/>
-        <item x="198"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="110"/>
-        <item x="127"/>
-        <item x="123"/>
-        <item x="137"/>
-        <item x="134"/>
-        <item x="216"/>
-        <item x="218"/>
-        <item x="177"/>
-        <item x="236"/>
-        <item x="158"/>
-        <item x="12"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="70"/>
-        <item x="242"/>
-        <item x="135"/>
-        <item x="97"/>
-        <item x="161"/>
-        <item x="229"/>
-        <item x="81"/>
-        <item x="142"/>
-        <item x="125"/>
-        <item x="13"/>
-        <item x="71"/>
-        <item x="106"/>
-        <item x="234"/>
-        <item x="82"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="109"/>
-        <item x="138"/>
-        <item x="146"/>
-        <item x="181"/>
-        <item x="72"/>
-        <item x="21"/>
-        <item x="34"/>
-        <item x="232"/>
-        <item x="231"/>
-        <item x="83"/>
-        <item x="208"/>
-        <item x="203"/>
-        <item x="213"/>
-        <item x="221"/>
-        <item x="9"/>
-        <item x="223"/>
-        <item x="55"/>
-        <item x="185"/>
-        <item x="143"/>
-        <item x="51"/>
-        <item x="100"/>
-        <item x="36"/>
-        <item x="247"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="3"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="13"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="14"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="20">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54178E12-E6C4-40BF-B68F-A0C0C4BF1E6E}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54178E12-E6C4-40BF-B68F-A0C0C4BF1E6E}" name="Tabela dinâmica2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="C3:F31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -40071,10 +44762,10 @@
     <dataField name="Soma de Reforço de Capital" fld="10" baseField="0" baseItem="2"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -40097,7 +44788,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D376FFE4-9E01-440D-A89A-0615558CD5CD}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D376FFE4-9E01-440D-A89A-0615558CD5CD}" name="Tabela dinâmica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0">
@@ -40522,7 +45213,418 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5126215-D479-4739-AB6F-A45F3724CC30}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{108DFA18-215C-48DD-A8FA-0184EDE7DC13}" name="Tabela dinâmica3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B28:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0">
+      <items count="29">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item h="1" x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="249">
+        <item x="49"/>
+        <item x="52"/>
+        <item x="50"/>
+        <item x="53"/>
+        <item x="156"/>
+        <item x="73"/>
+        <item x="189"/>
+        <item x="47"/>
+        <item x="144"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="112"/>
+        <item x="139"/>
+        <item x="206"/>
+        <item x="22"/>
+        <item x="163"/>
+        <item x="244"/>
+        <item x="150"/>
+        <item x="182"/>
+        <item x="149"/>
+        <item x="14"/>
+        <item x="200"/>
+        <item x="27"/>
+        <item x="32"/>
+        <item x="1"/>
+        <item x="56"/>
+        <item x="89"/>
+        <item x="10"/>
+        <item x="224"/>
+        <item x="114"/>
+        <item x="199"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="179"/>
+        <item x="2"/>
+        <item x="192"/>
+        <item x="74"/>
+        <item x="28"/>
+        <item x="68"/>
+        <item x="238"/>
+        <item x="176"/>
+        <item x="75"/>
+        <item x="62"/>
+        <item x="174"/>
+        <item x="76"/>
+        <item x="172"/>
+        <item x="105"/>
+        <item x="45"/>
+        <item x="59"/>
+        <item x="209"/>
+        <item x="116"/>
+        <item x="160"/>
+        <item x="194"/>
+        <item x="207"/>
+        <item x="210"/>
+        <item x="30"/>
+        <item x="66"/>
+        <item x="225"/>
+        <item x="67"/>
+        <item x="131"/>
+        <item x="151"/>
+        <item x="205"/>
+        <item x="168"/>
+        <item x="212"/>
+        <item x="6"/>
+        <item x="153"/>
+        <item x="173"/>
+        <item x="124"/>
+        <item x="147"/>
+        <item x="128"/>
+        <item x="152"/>
+        <item x="148"/>
+        <item x="20"/>
+        <item x="227"/>
+        <item x="77"/>
+        <item x="63"/>
+        <item x="113"/>
+        <item x="117"/>
+        <item x="31"/>
+        <item x="219"/>
+        <item x="48"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item x="211"/>
+        <item x="43"/>
+        <item x="23"/>
+        <item x="41"/>
+        <item x="184"/>
+        <item x="188"/>
+        <item x="171"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="154"/>
+        <item x="187"/>
+        <item x="40"/>
+        <item x="90"/>
+        <item x="217"/>
+        <item x="54"/>
+        <item x="170"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="91"/>
+        <item x="19"/>
+        <item x="42"/>
+        <item x="104"/>
+        <item x="191"/>
+        <item x="121"/>
+        <item x="46"/>
+        <item x="118"/>
+        <item x="39"/>
+        <item x="92"/>
+        <item x="201"/>
+        <item x="162"/>
+        <item x="186"/>
+        <item x="246"/>
+        <item x="115"/>
+        <item x="190"/>
+        <item x="57"/>
+        <item x="86"/>
+        <item x="11"/>
+        <item x="93"/>
+        <item x="222"/>
+        <item x="16"/>
+        <item x="111"/>
+        <item x="119"/>
+        <item x="155"/>
+        <item x="94"/>
+        <item x="157"/>
+        <item x="164"/>
+        <item x="44"/>
+        <item x="130"/>
+        <item x="226"/>
+        <item x="140"/>
+        <item x="58"/>
+        <item x="95"/>
+        <item x="197"/>
+        <item x="196"/>
+        <item x="169"/>
+        <item x="132"/>
+        <item x="215"/>
+        <item x="245"/>
+        <item x="60"/>
+        <item x="3"/>
+        <item x="202"/>
+        <item x="88"/>
+        <item x="108"/>
+        <item x="129"/>
+        <item x="159"/>
+        <item x="145"/>
+        <item x="141"/>
+        <item x="193"/>
+        <item x="195"/>
+        <item x="183"/>
+        <item x="29"/>
+        <item x="133"/>
+        <item x="96"/>
+        <item x="233"/>
+        <item x="239"/>
+        <item x="241"/>
+        <item x="240"/>
+        <item x="230"/>
+        <item x="178"/>
+        <item x="243"/>
+        <item x="33"/>
+        <item x="235"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="237"/>
+        <item x="87"/>
+        <item x="69"/>
+        <item x="180"/>
+        <item x="120"/>
+        <item x="0"/>
+        <item x="107"/>
+        <item x="175"/>
+        <item x="228"/>
+        <item x="25"/>
+        <item x="126"/>
+        <item x="37"/>
+        <item x="167"/>
+        <item x="220"/>
+        <item x="214"/>
+        <item x="102"/>
+        <item x="165"/>
+        <item x="204"/>
+        <item x="166"/>
+        <item x="103"/>
+        <item x="101"/>
+        <item x="122"/>
+        <item x="38"/>
+        <item x="136"/>
+        <item x="18"/>
+        <item x="198"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="110"/>
+        <item x="127"/>
+        <item x="123"/>
+        <item x="137"/>
+        <item x="134"/>
+        <item x="216"/>
+        <item x="218"/>
+        <item x="177"/>
+        <item x="236"/>
+        <item x="158"/>
+        <item x="12"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="70"/>
+        <item x="242"/>
+        <item x="135"/>
+        <item x="97"/>
+        <item x="161"/>
+        <item x="229"/>
+        <item x="81"/>
+        <item x="142"/>
+        <item x="125"/>
+        <item x="13"/>
+        <item x="71"/>
+        <item x="106"/>
+        <item x="234"/>
+        <item x="82"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="109"/>
+        <item x="138"/>
+        <item x="146"/>
+        <item x="181"/>
+        <item x="72"/>
+        <item x="21"/>
+        <item x="34"/>
+        <item x="232"/>
+        <item x="231"/>
+        <item x="83"/>
+        <item x="208"/>
+        <item x="203"/>
+        <item x="213"/>
+        <item x="221"/>
+        <item x="9"/>
+        <item x="223"/>
+        <item x="55"/>
+        <item x="185"/>
+        <item x="143"/>
+        <item x="51"/>
+        <item x="100"/>
+        <item x="36"/>
+        <item x="247"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="3"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="13"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="12"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="20">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5126215-D479-4739-AB6F-A45F3724CC30}" name="Tabela dinâmica1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A3:B32" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="descending">
@@ -41000,9 +46102,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:M261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B189" sqref="B189"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41718,7 +46820,7 @@
         <v>349</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -41757,7 +46859,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F27" s="4">
         <v>5832992759.9064999</v>
@@ -44947,7 +50049,7 @@
       <c r="A138" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="35" t="s">
         <v>285</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -44957,7 +50059,7 @@
         <v>21</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F138" s="4">
         <v>68954000</v>
@@ -45335,7 +50437,7 @@
         <v>22</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F150" s="4">
         <v>5658384825.4899998</v>
@@ -45492,7 +50594,7 @@
       <c r="A156" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="35" t="s">
         <v>288</v>
       </c>
       <c r="C156" s="2" t="s">
@@ -45502,7 +50604,7 @@
         <v>349</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
@@ -46543,14 +51645,14 @@
       <c r="A193" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="35" t="s">
         <v>159</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F193" s="4">
         <v>73251000</v>
@@ -46633,7 +51735,7 @@
         <v>22</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F196" s="4">
         <v>162631832.69</v>
@@ -47360,7 +52462,7 @@
         <v>22</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F223" s="4">
         <v>1365307297.77</v>
@@ -48530,15 +53632,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L259" xr:uid="{676FE9D8-D4D7-4D11-A981-EDAAE33BD4AB}"/>
   <conditionalFormatting sqref="B1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Não tem Quadro">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Não tem Quadro">
       <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:C185">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Não tem Quadro">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Não tem Quadro">
       <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B185)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B223">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="água">
+      <formula>NOT(ISERROR(SEARCH("água",B7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Esgoto">
+      <formula>NOT(ISERROR(SEARCH("Esgoto",B7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="SANEAMENTO">
+      <formula>NOT(ISERROR(SEARCH("SANEAMENTO",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -48546,13 +53658,1452 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31823DA-CA76-413E-8613-6D7283563F16}">
+  <sheetPr codeName="Planilha4"/>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="19">
+        <f>1000*9800029</f>
+        <v>9800029000</v>
+      </c>
+      <c r="F2" s="19">
+        <f>1000*72851</f>
+        <v>72851000</v>
+      </c>
+      <c r="G2" s="28">
+        <f>F2/E2</f>
+        <v>7.4337535123620551E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="19">
+        <f>1000*283543000</f>
+        <v>283543000000</v>
+      </c>
+      <c r="F3" s="19">
+        <f>1000*7125000</f>
+        <v>7125000000</v>
+      </c>
+      <c r="G3" s="28">
+        <f t="shared" ref="G3:G21" si="0">F3/E3</f>
+        <v>2.5128463760346754E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="19">
+        <f>1000*9686000</f>
+        <v>9686000000</v>
+      </c>
+      <c r="F4" s="19">
+        <f>247000*1000</f>
+        <v>247000000</v>
+      </c>
+      <c r="G4" s="28">
+        <f t="shared" si="0"/>
+        <v>2.5500722692545944E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="19">
+        <f>10923133*1000</f>
+        <v>10923133000</v>
+      </c>
+      <c r="F5" s="19">
+        <f>1000*377714</f>
+        <v>377714000</v>
+      </c>
+      <c r="G5" s="28">
+        <f t="shared" si="0"/>
+        <v>3.4579273181055289E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="19">
+        <f>1000*-376350</f>
+        <v>-376350000</v>
+      </c>
+      <c r="F6" s="19">
+        <f>1000*64069</f>
+        <v>64069000</v>
+      </c>
+      <c r="G6" s="28">
+        <f t="shared" si="0"/>
+        <v>-0.17023781054869139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="19">
+        <f>1000*3199587</f>
+        <v>3199587000</v>
+      </c>
+      <c r="F7" s="19">
+        <f>1000*159084</f>
+        <v>159084000</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" si="0"/>
+        <v>4.9720167009054607E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="19">
+        <f>1000*1006596</f>
+        <v>1006596000</v>
+      </c>
+      <c r="F8" s="19">
+        <f>1000*2694</f>
+        <v>2694000</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
+        <v>2.6763468163990322E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="19">
+        <f>1293337*1000</f>
+        <v>1293337000</v>
+      </c>
+      <c r="F9" s="19">
+        <f>1000*50415</f>
+        <v>50415000</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
+        <v>3.8980559591197034E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="19">
+        <f>2721324*1000</f>
+        <v>2721324000</v>
+      </c>
+      <c r="F10" s="19">
+        <f>179093*1000</f>
+        <v>179093000</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
+        <v>6.5810980243440328E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="19">
+        <f>1246082*1000</f>
+        <v>1246082000</v>
+      </c>
+      <c r="F11" s="19">
+        <f>1000*-29533</f>
+        <v>-29533000</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
+        <v>-2.3700687434695309E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="19">
+        <f>19551688*1000</f>
+        <v>19551688000</v>
+      </c>
+      <c r="F12" s="19">
+        <f>1000*580431</f>
+        <v>580431000</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>2.968700196116059E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19">
+        <f>1000*6226633</f>
+        <v>6226633000</v>
+      </c>
+      <c r="F13" s="19">
+        <f>1000*164233</f>
+        <v>164233000</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="0"/>
+        <v>2.6375892075219464E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="19">
+        <f>5717188*1000</f>
+        <v>5717188000</v>
+      </c>
+      <c r="F14" s="19">
+        <f>186911*1000</f>
+        <v>186911000</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="0"/>
+        <v>3.2692820316561219E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="19">
+        <f>646262*1000</f>
+        <v>646262000</v>
+      </c>
+      <c r="F15" s="19">
+        <f>8335*1000</f>
+        <v>8335000</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="0"/>
+        <v>1.2897246008584754E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E16" s="19">
+        <f>1523474*1000</f>
+        <v>1523474000</v>
+      </c>
+      <c r="F16" s="19">
+        <f>54758*1000</f>
+        <v>54758000</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="0"/>
+        <v>3.594285166665135E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="E17" s="19">
+        <f>6261709*1000</f>
+        <v>6261709000</v>
+      </c>
+      <c r="F17" s="19">
+        <f>129429*1000</f>
+        <v>129429000</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="0"/>
+        <v>2.0669916152283665E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="19">
+        <f>1248499*1000</f>
+        <v>1248499000</v>
+      </c>
+      <c r="F18" s="19">
+        <f>25091*1000</f>
+        <v>25091000</v>
+      </c>
+      <c r="G18" s="28">
+        <f t="shared" si="0"/>
+        <v>2.0096932396421623E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="19">
+        <f>48437*1000</f>
+        <v>48437000</v>
+      </c>
+      <c r="F19" s="19">
+        <f>13996*1000</f>
+        <v>13996000</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="0"/>
+        <v>0.28895266015649196</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="19">
+        <f>105113*1000</f>
+        <v>105113000</v>
+      </c>
+      <c r="F20" s="19">
+        <f>-(600)*1000</f>
+        <v>-600000</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="0"/>
+        <v>-5.7081426655123529E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="19">
+        <f>-354627*1000</f>
+        <v>-354627000</v>
+      </c>
+      <c r="F21" s="19">
+        <v>41772</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="0"/>
+        <v>-1.1779136952347115E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C1">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Não tem Quadro">
+      <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="javascript:;" xr:uid="{B8C01B1B-3A5F-4FB4-ACE2-9C8F1EDB1C2A}"/>
+    <hyperlink ref="C3" r:id="rId2" display="javascript:;" xr:uid="{20BE742D-49FC-44D8-9586-8AD45AC8DE10}"/>
+    <hyperlink ref="C4" r:id="rId3" display="javascript:;" xr:uid="{DDABF640-378A-4E4C-B2E0-538346257D16}"/>
+    <hyperlink ref="C5" r:id="rId4" display="javascript:;" xr:uid="{BC74223B-2884-4FD3-B2ED-F5D5CC00A27A}"/>
+    <hyperlink ref="C6" r:id="rId5" display="javascript:;" xr:uid="{3ED9F169-219A-4923-8F34-23C87C8B48EC}"/>
+    <hyperlink ref="C7" r:id="rId6" display="javascript:;" xr:uid="{065FEFB0-048A-4D2A-AA55-BA39C07EBC46}"/>
+    <hyperlink ref="C8" r:id="rId7" display="javascript:;" xr:uid="{CB71BABD-92A8-4DB4-82F6-EB65E3841EA9}"/>
+    <hyperlink ref="C9" r:id="rId8" display="javascript:;" xr:uid="{9624D2F3-A508-4F29-BB57-52409B462163}"/>
+    <hyperlink ref="C10" r:id="rId9" display="javascript:;" xr:uid="{8CA45F65-AA2F-48D7-A75A-24171881F2AC}"/>
+    <hyperlink ref="C11" r:id="rId10" display="javascript:;" xr:uid="{60E47B07-58DD-4E75-A058-47D3D9E511C4}"/>
+    <hyperlink ref="C12" r:id="rId11" display="javascript:;" xr:uid="{F31CEE54-253D-4609-BADC-D29616371B9F}"/>
+    <hyperlink ref="C13" r:id="rId12" display="javascript:;" xr:uid="{DF8377BE-69F7-4C52-9121-BA63EA5B180D}"/>
+    <hyperlink ref="C15" r:id="rId13" display="javascript:;" xr:uid="{46ECB271-94C0-49FC-AC46-8C1BB2EEF922}"/>
+    <hyperlink ref="C18" r:id="rId14" display="javascript:;" xr:uid="{9CA47EDC-A686-4C3A-B49A-7005C44F21F6}"/>
+    <hyperlink ref="C19" r:id="rId15" display="javascript:;" xr:uid="{9C4A1604-9143-47ED-828C-CD513CEE486F}"/>
+    <hyperlink ref="C21" r:id="rId16" display="javascript:;" xr:uid="{52BC8C7B-0A61-4795-8D88-E4A0DC6B9F20}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD96AB0A-AA04-4F1C-A8D3-766A71243D14}">
+  <dimension ref="A3:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="17">
+        <v>24</v>
+      </c>
+      <c r="C5" s="17">
+        <v>22</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="17">
+        <v>13</v>
+      </c>
+      <c r="C6" s="17">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3</v>
+      </c>
+      <c r="E6" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="17">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17">
+        <v>3</v>
+      </c>
+      <c r="E7" s="17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="17">
+        <v>18</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="17">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17">
+        <v>8</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="17">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17">
+        <v>9</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="17">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17">
+        <v>11</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="17">
+        <v>5</v>
+      </c>
+      <c r="C13" s="17">
+        <v>8</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17">
+        <v>9</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="17">
+        <v>9</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="17">
+        <v>4</v>
+      </c>
+      <c r="C16" s="17">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="17">
+        <v>5</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="17">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17">
+        <v>3</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" s="17">
+        <v>106</v>
+      </c>
+      <c r="C25" s="17">
+        <v>138</v>
+      </c>
+      <c r="D25" s="17">
+        <v>14</v>
+      </c>
+      <c r="E25" s="17">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78016B9-370B-4256-A8FD-A94320851BC1}">
+  <sheetPr>
+    <tabColor rgb="FF440154"/>
+  </sheetPr>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>402</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA74B54-090A-455D-ACF1-974D9D254D3C}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -49025,7 +55576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A270C9-477A-424C-B8AE-3592091BE5D8}">
   <dimension ref="A3:B76"/>
   <sheetViews>
@@ -49663,7 +56214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CB909F-E4E0-4D4C-B7A8-D8852E0ECBF5}">
   <dimension ref="A3:H48"/>
   <sheetViews>
@@ -50670,7 +57221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0316D157-E1A4-4A49-B822-B5B3FF584A1B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -50924,7 +57475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E0E454-D9BF-470F-8478-D5CBE943E508}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A3:H40"/>
@@ -51434,7 +57985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F839BEDB-E22E-4ABF-A9A2-65A40A7FA903}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:AJ125"/>
@@ -56146,535 +62697,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31823DA-CA76-413E-8613-6D7283563F16}">
-  <sheetPr codeName="Planilha4"/>
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="19">
-        <f>1000*9800029</f>
-        <v>9800029000</v>
-      </c>
-      <c r="F2" s="19">
-        <f>1000*72851</f>
-        <v>72851000</v>
-      </c>
-      <c r="G2" s="28">
-        <f>F2/E2</f>
-        <v>7.4337535123620551E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="19">
-        <f>1000*283543000</f>
-        <v>283543000000</v>
-      </c>
-      <c r="F3" s="19">
-        <f>1000*7125000</f>
-        <v>7125000000</v>
-      </c>
-      <c r="G3" s="28">
-        <f t="shared" ref="G3:G21" si="0">F3/E3</f>
-        <v>2.5128463760346754E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
-        <v>356</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="19">
-        <f>1000*9686000</f>
-        <v>9686000000</v>
-      </c>
-      <c r="F4" s="19">
-        <f>247000*1000</f>
-        <v>247000000</v>
-      </c>
-      <c r="G4" s="28">
-        <f t="shared" si="0"/>
-        <v>2.5500722692545944E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="19">
-        <f>10923133*1000</f>
-        <v>10923133000</v>
-      </c>
-      <c r="F5" s="19">
-        <f>1000*377714</f>
-        <v>377714000</v>
-      </c>
-      <c r="G5" s="28">
-        <f t="shared" si="0"/>
-        <v>3.4579273181055289E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="19">
-        <f>1000*-376350</f>
-        <v>-376350000</v>
-      </c>
-      <c r="F6" s="19">
-        <f>1000*64069</f>
-        <v>64069000</v>
-      </c>
-      <c r="G6" s="28">
-        <f t="shared" si="0"/>
-        <v>-0.17023781054869139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="19">
-        <f>1000*3199587</f>
-        <v>3199587000</v>
-      </c>
-      <c r="F7" s="19">
-        <f>1000*159084</f>
-        <v>159084000</v>
-      </c>
-      <c r="G7" s="28">
-        <f t="shared" si="0"/>
-        <v>4.9720167009054607E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="19">
-        <f>1000*1006596</f>
-        <v>1006596000</v>
-      </c>
-      <c r="F8" s="19">
-        <f>1000*2694</f>
-        <v>2694000</v>
-      </c>
-      <c r="G8" s="28">
-        <f t="shared" si="0"/>
-        <v>2.6763468163990322E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="19">
-        <f>1293337*1000</f>
-        <v>1293337000</v>
-      </c>
-      <c r="F9" s="19">
-        <f>1000*50415</f>
-        <v>50415000</v>
-      </c>
-      <c r="G9" s="28">
-        <f t="shared" si="0"/>
-        <v>3.8980559591197034E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="19">
-        <f>2721324*1000</f>
-        <v>2721324000</v>
-      </c>
-      <c r="F10" s="19">
-        <f>179093*1000</f>
-        <v>179093000</v>
-      </c>
-      <c r="G10" s="28">
-        <f t="shared" si="0"/>
-        <v>6.5810980243440328E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="19">
-        <f>1246082*1000</f>
-        <v>1246082000</v>
-      </c>
-      <c r="F11" s="19">
-        <f>1000*-29533</f>
-        <v>-29533000</v>
-      </c>
-      <c r="G11" s="28">
-        <f t="shared" si="0"/>
-        <v>-2.3700687434695309E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="19">
-        <f>19551688*1000</f>
-        <v>19551688000</v>
-      </c>
-      <c r="F12" s="19">
-        <f>1000*580431</f>
-        <v>580431000</v>
-      </c>
-      <c r="G12" s="28">
-        <f t="shared" si="0"/>
-        <v>2.968700196116059E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="19">
-        <f>1000*6226633</f>
-        <v>6226633000</v>
-      </c>
-      <c r="F13" s="19">
-        <f>1000*164233</f>
-        <v>164233000</v>
-      </c>
-      <c r="G13" s="28">
-        <f t="shared" si="0"/>
-        <v>2.6375892075219464E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="19">
-        <f>5717188*1000</f>
-        <v>5717188000</v>
-      </c>
-      <c r="F14" s="19">
-        <f>186911*1000</f>
-        <v>186911000</v>
-      </c>
-      <c r="G14" s="28">
-        <f t="shared" si="0"/>
-        <v>3.2692820316561219E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="19">
-        <f>646262*1000</f>
-        <v>646262000</v>
-      </c>
-      <c r="F15" s="19">
-        <f>8335*1000</f>
-        <v>8335000</v>
-      </c>
-      <c r="G15" s="28">
-        <f t="shared" si="0"/>
-        <v>1.2897246008584754E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="E16" s="19">
-        <f>1523474*1000</f>
-        <v>1523474000</v>
-      </c>
-      <c r="F16" s="19">
-        <f>54758*1000</f>
-        <v>54758000</v>
-      </c>
-      <c r="G16" s="28">
-        <f t="shared" si="0"/>
-        <v>3.594285166665135E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="E17" s="19">
-        <f>6261709*1000</f>
-        <v>6261709000</v>
-      </c>
-      <c r="F17" s="19">
-        <f>129429*1000</f>
-        <v>129429000</v>
-      </c>
-      <c r="G17" s="28">
-        <f t="shared" si="0"/>
-        <v>2.0669916152283665E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="E18" s="19">
-        <f>1248499*1000</f>
-        <v>1248499000</v>
-      </c>
-      <c r="F18" s="19">
-        <f>25091*1000</f>
-        <v>25091000</v>
-      </c>
-      <c r="G18" s="28">
-        <f t="shared" si="0"/>
-        <v>2.0096932396421623E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="E19" s="19">
-        <f>48437*1000</f>
-        <v>48437000</v>
-      </c>
-      <c r="F19" s="19">
-        <f>13996*1000</f>
-        <v>13996000</v>
-      </c>
-      <c r="G19" s="28">
-        <f t="shared" si="0"/>
-        <v>0.28895266015649196</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="E20" s="19">
-        <f>105113*1000</f>
-        <v>105113000</v>
-      </c>
-      <c r="F20" s="19">
-        <f>-(600)*1000</f>
-        <v>-600000</v>
-      </c>
-      <c r="G20" s="28">
-        <f t="shared" si="0"/>
-        <v>-5.7081426655123529E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="E21" s="19">
-        <f>-354627*1000</f>
-        <v>-354627000</v>
-      </c>
-      <c r="F21" s="19">
-        <v>41772</v>
-      </c>
-      <c r="G21" s="28">
-        <f t="shared" si="0"/>
-        <v>-1.1779136952347115E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:C1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Não tem Quadro">
-      <formula>NOT(ISERROR(SEARCH("Não tem Quadro",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="javascript:;" xr:uid="{B8C01B1B-3A5F-4FB4-ACE2-9C8F1EDB1C2A}"/>
-    <hyperlink ref="C3" r:id="rId2" display="javascript:;" xr:uid="{20BE742D-49FC-44D8-9586-8AD45AC8DE10}"/>
-    <hyperlink ref="C4" r:id="rId3" display="javascript:;" xr:uid="{DDABF640-378A-4E4C-B2E0-538346257D16}"/>
-    <hyperlink ref="C5" r:id="rId4" display="javascript:;" xr:uid="{BC74223B-2884-4FD3-B2ED-F5D5CC00A27A}"/>
-    <hyperlink ref="C6" r:id="rId5" display="javascript:;" xr:uid="{3ED9F169-219A-4923-8F34-23C87C8B48EC}"/>
-    <hyperlink ref="C7" r:id="rId6" display="javascript:;" xr:uid="{065FEFB0-048A-4D2A-AA55-BA39C07EBC46}"/>
-    <hyperlink ref="C8" r:id="rId7" display="javascript:;" xr:uid="{CB71BABD-92A8-4DB4-82F6-EB65E3841EA9}"/>
-    <hyperlink ref="C9" r:id="rId8" display="javascript:;" xr:uid="{9624D2F3-A508-4F29-BB57-52409B462163}"/>
-    <hyperlink ref="C10" r:id="rId9" display="javascript:;" xr:uid="{8CA45F65-AA2F-48D7-A75A-24171881F2AC}"/>
-    <hyperlink ref="C11" r:id="rId10" display="javascript:;" xr:uid="{60E47B07-58DD-4E75-A058-47D3D9E511C4}"/>
-    <hyperlink ref="C12" r:id="rId11" display="javascript:;" xr:uid="{F31CEE54-253D-4609-BADC-D29616371B9F}"/>
-    <hyperlink ref="C13" r:id="rId12" display="javascript:;" xr:uid="{DF8377BE-69F7-4C52-9121-BA63EA5B180D}"/>
-    <hyperlink ref="C15" r:id="rId13" display="javascript:;" xr:uid="{46ECB271-94C0-49FC-AC46-8C1BB2EEF922}"/>
-    <hyperlink ref="C18" r:id="rId14" display="javascript:;" xr:uid="{9CA47EDC-A686-4C3A-B49A-7005C44F21F6}"/>
-    <hyperlink ref="C19" r:id="rId15" display="javascript:;" xr:uid="{9C4A1604-9143-47ED-828C-CD513CEE486F}"/>
-    <hyperlink ref="C21" r:id="rId16" display="javascript:;" xr:uid="{52BC8C7B-0A61-4795-8D88-E4A0DC6B9F20}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-</worksheet>
 </file>